--- a/astrangia_preliminary_samples.xlsx
+++ b/astrangia_preliminary_samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TL_Astrangia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C654470C-C17F-BF42-B710-974881059E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7541D68-E90B-A444-8A22-26F52DB8B0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="500" windowWidth="25440" windowHeight="14240" xr2:uid="{F099C885-5D9E-5441-A115-7165A9EAB8DC}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="25440" windowHeight="14240" xr2:uid="{F099C885-5D9E-5441-A115-7165A9EAB8DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -513,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EBBD79-C7F1-D748-82DD-0A824EC1A257}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +528,7 @@
     <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44797</v>
       </c>
@@ -570,8 +570,14 @@
       <c r="I2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44797</v>
       </c>
@@ -597,8 +603,14 @@
       <c r="K3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44797</v>
       </c>
@@ -623,8 +635,14 @@
       <c r="K4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44797</v>
       </c>
@@ -649,8 +667,14 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44797</v>
       </c>
@@ -675,8 +699,14 @@
       <c r="K6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44797</v>
       </c>
@@ -695,8 +725,14 @@
       <c r="I7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44797</v>
       </c>
@@ -713,7 +749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44797</v>
       </c>
@@ -729,8 +765,16 @@
       <c r="E9" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <f>SUM(M2:M7)</f>
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <f>SUM(N2:N7)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44797</v>
       </c>
@@ -747,7 +791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44797</v>
       </c>
@@ -765,7 +809,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44797</v>
       </c>
@@ -782,7 +826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44813</v>
       </c>
@@ -799,7 +843,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44813</v>
       </c>
@@ -816,7 +860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44813</v>
       </c>
@@ -833,10 +877,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>44813</v>
-      </c>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
       <c r="B16">
         <v>15</v>
       </c>
